--- a/10-excel/rezultati.xlsx
+++ b/10-excel/rezultati.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nika\Documents\racunalniski_praktikum\10-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32456F0-9499-4D6C-A8A9-8D0EA37A8805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC119304-92F6-4D50-A327-900B7F1916C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List2" sheetId="3" r:id="rId1"/>
-    <sheet name="List4" sheetId="5" r:id="rId2"/>
-    <sheet name="List3" sheetId="4" r:id="rId3"/>
-    <sheet name="Rezultati" sheetId="1" r:id="rId4"/>
+    <sheet name="List4" sheetId="5" r:id="rId1"/>
+    <sheet name="Rezultati" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_rezultati.xlsxSkupine" hidden="1">Skupine[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_rezultati.xlsxSkupine1" hidden="1">Skupine[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
-    <pivotCache cacheId="32" r:id="rId6"/>
+    <pivotCache cacheId="32" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -59,7 +56,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Skupine" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_rezultati.xlsxSkupine"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_rezultati.xlsxSkupine1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -68,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>Priimek</t>
   </si>
@@ -272,21 +269,6 @@
   </si>
   <si>
     <t>Skupna vsota</t>
-  </si>
-  <si>
-    <t>Vsota od Udeležba</t>
-  </si>
-  <si>
-    <t>Vsota od 2022</t>
-  </si>
-  <si>
-    <t>Vsota od 2021</t>
-  </si>
-  <si>
-    <t>Povprečje od 2022</t>
-  </si>
-  <si>
-    <t>Povprečje od 2021</t>
   </si>
   <si>
     <t>Minimum</t>
@@ -460,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +622,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -756,6 +744,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -801,14 +819,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % – Poudarek1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -854,51 +877,29 @@
     <cellStyle name="Vnos" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Vsota" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1313,7 +1314,571 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Povprečje</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> v letih 2021 in 2022</a:t>
+            </a:r>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rezultati!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Rezultati!$O$3:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rezultati!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.714285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BD6-4026-9FA9-AC4181362FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Rezultati!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Rezultati!$O$3:$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Rezultati!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>66.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BD6-4026-9FA9-AC4181362FF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="408303848"/>
+        <c:axId val="408304176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="408303848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Skupina</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408304176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408304176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t> Povprečje</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408303848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1872,20 +2437,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1910,41 +2978,46 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafikon 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6E52C4-80E0-4829-A735-94C275C8C201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nika" refreshedDate="46019.587703472222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="3" xr:uid="{E5B7757A-40E2-4058-9716-9FCF6FE4985A}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Skupine"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Test" numFmtId="0">
-      <sharedItems count="3">
-        <s v="A"/>
-        <s v="B"/>
-        <s v="C"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Udeležba" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="12"/>
-    </cacheField>
-    <cacheField name="2022" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="47.714285714285715" maxValue="66.5"/>
-    </cacheField>
-    <cacheField name="2021" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="49.66" maxValue="66.84"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Nika" refreshedDate="46019.596473379628" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{F79D8F6E-267D-4E31-9A70-7E1CFF4091F6}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
@@ -2062,94 +3135,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <n v="58.222222222222221"/>
-    <n v="66.84"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="12"/>
-    <n v="66.5"/>
-    <n v="52.35"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="7"/>
-    <n v="47.714285714285715"/>
-    <n v="49.66"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08368385-5A9D-4302-906A-B3E0E319B4DC}" name="Vrtilna tabela2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Vsota od Udeležba" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Povprečje od 2022" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Povprečje od 2021" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{511BA426-45B1-4F1E-A8AD-FE939C1BAF2A}" name="Vrtilna tabela4" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -2207,7 +3193,7 @@
     <dataField name="Maksimum" fld="3" subtotal="max" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2258,70 +3244,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6932F6B-0A43-4000-B779-3AC19F5AFE6C}" name="Vrtilna tabela3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Vrednosti" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Vsota od Udeležba" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Vsota od 2022" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Vsota od 2021" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}" name="Rezultati" displayName="Rezultati" ref="B2:F30" totalsRowShown="0">
   <autoFilter ref="B2:F30" xr:uid="{07C90745-5D9B-DB4B-840E-195183B97A51}"/>
@@ -2346,17 +3268,17 @@
   <autoFilter ref="H2:M5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{26F1C940-A3E1-AA4A-B91A-EA859D7A62AD}" name="Test"/>
-    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(Rezultati[Skupina], Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="7">
       <calculatedColumnFormula>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B0EFA30B-7FCE-C547-8EC0-FF89353D2666}" name="2021"/>
-    <tableColumn id="5" xr3:uid="{DA75904A-F7A8-402C-B8BF-F0C9247BC8A1}" name="Minimum" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{DA75904A-F7A8-402C-B8BF-F0C9247BC8A1}" name="Minimum" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.MINIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9DCCDF06-E0D7-4D4B-A170-62F661D10721}" name="Maksimum" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{9DCCDF06-E0D7-4D4B-A170-62F661D10721}" name="Maksimum" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2684,96 +3606,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95F2AE6-F399-4B6D-AA6E-438066CE2D18}">
-  <dimension ref="A3:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>58.222222222222221</v>
-      </c>
-      <c r="D4" s="4">
-        <v>66.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>52.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>47.714285714285715</v>
-      </c>
-      <c r="D6" s="4">
-        <v>49.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4">
-        <v>57.478835978835981</v>
-      </c>
-      <c r="D7" s="4">
-        <v>56.283333333333331</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4B6918-BF03-4ED3-8EA4-D258E2D1FCF2}">
   <dimension ref="A3:E7"/>
   <sheetViews>
@@ -2792,87 +3624,87 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>58.222222222222221</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>66.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>36</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>47.714285714285715</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>26</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>28</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>57.478835978835981</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>26</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
     </row>
@@ -2881,102 +3713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A999B5A-0890-4A92-902E-41913A9C2A86}">
-  <dimension ref="A3:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>58.222222222222221</v>
-      </c>
-      <c r="D4" s="4">
-        <v>66.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>66.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>52.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>47.714285714285715</v>
-      </c>
-      <c r="D6" s="4">
-        <v>49.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4">
-        <v>172.43650793650795</v>
-      </c>
-      <c r="D7" s="4">
-        <v>168.85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,7 +3736,7 @@
     <col min="11" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3023,13 +3765,22 @@
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>62</v>
       </c>
@@ -3053,7 +3804,7 @@
         <f>COUNTIF(Rezultati[Skupina], Skupine[[#This Row],[Test]])</f>
         <v>9</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
         <v>58.222222222222221</v>
       </c>
@@ -3068,8 +3819,18 @@
         <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
         <v>94</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="8">
+        <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
+        <v>58.222222222222221</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>66.84</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>34</v>
       </c>
@@ -3093,7 +3854,7 @@
         <f>COUNTIF(Rezultati[Skupina], Skupine[[#This Row],[Test]])</f>
         <v>12</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
         <v>66.5</v>
       </c>
@@ -3108,8 +3869,18 @@
         <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
         <v>100</v>
       </c>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="9">
+        <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
+        <v>66.5</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>52.35</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3904,7 @@
         <f>COUNTIF(Rezultati[Skupina], Skupine[[#This Row],[Test]])</f>
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
         <v>47.714285714285715</v>
       </c>
@@ -3148,8 +3919,18 @@
         <f>_xlfn.MAXIFS(Rezultati[Točke],Rezultati[Skupina],Skupine[[#This Row],[Test]])</f>
         <v>76</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="8">
+        <f>AVERAGEIF(Rezultati[Skupina],Skupine[[#This Row],[Test]],Rezultati[Točke])</f>
+        <v>47.714285714285715</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>49.66</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3167,7 +3948,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -3185,7 +3966,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -3203,7 +3984,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3221,7 +4002,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -3239,7 +4020,7 @@
         <v>NE</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -3257,7 +4038,7 @@
         <v>NE</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -3275,7 +4056,7 @@
         <v>NE</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -3293,7 +4074,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -3311,7 +4092,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -3329,7 +4110,7 @@
         <v>DA</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -3600,11 +4381,22 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E30">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:C30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$E3&lt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>